--- a/Facturacion-Dic-2022/Cronograma.xlsx
+++ b/Facturacion-Dic-2022/Cronograma.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Proyectos\Facturacion-Dic-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD0B03D-27FA-4A56-9978-8CD251F8F235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098F366C-8B6A-406C-8597-0C6AD808D8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A42B8D5A-9F31-466A-9FBC-BB56DA1A16AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Desktop - JSON" sheetId="1" r:id="rId1"/>
-    <sheet name="Desktop - Base de datos" sheetId="2" r:id="rId2"/>
-    <sheet name="Web - BackEnd" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Actividades</t>
   </si>
@@ -58,40 +56,34 @@
     <t>Diseño interfaz de facturación</t>
   </si>
   <si>
-    <t>Pruebas unitarias</t>
-  </si>
-  <si>
-    <t>Diseño modelo entidad-relación</t>
-  </si>
-  <si>
-    <t>Creación de la base de datos</t>
-  </si>
-  <si>
-    <t>CRUD inventario</t>
-  </si>
-  <si>
-    <t>CRUD facturas</t>
-  </si>
-  <si>
-    <t>Posible fecha inicial de entrega (05/01/2023 - 12/01/2023)</t>
-  </si>
-  <si>
-    <t>Posible fecha inicial de entrega (12/01/2023 - 19/01/2023)</t>
-  </si>
-  <si>
-    <t>Lenguaje Java - BD MySQL</t>
-  </si>
-  <si>
     <t>Lenguaje Java</t>
   </si>
   <si>
-    <t>Framework SpringBoot - BD MySQL</t>
-  </si>
-  <si>
-    <t>Organizar fechas</t>
-  </si>
-  <si>
-    <t>Recomendaciones</t>
+    <t>12/12/2022 - 16/12/2022</t>
+  </si>
+  <si>
+    <t>19/12/2022 - 23/12/2022</t>
+  </si>
+  <si>
+    <t>26/12/2022 - 30/12/2022</t>
+  </si>
+  <si>
+    <t>9/01/2023 - 13/01/2023</t>
+  </si>
+  <si>
+    <t>16/01/2023 - 20/01/2023</t>
+  </si>
+  <si>
+    <t>Generación de los recibos</t>
+  </si>
+  <si>
+    <t>Diseño modulo de cliente</t>
+  </si>
+  <si>
+    <t>23/01/2023 - 27/01/2023</t>
+  </si>
+  <si>
+    <t>Posible fecha inicial de entrega (28/01/2023)</t>
   </si>
 </sst>
 </file>
@@ -135,7 +127,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,18 +166,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -226,14 +212,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -241,40 +239,47 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,124 +594,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373D7A69-CA96-45E7-AB21-0A69C08FBF99}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="6" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="2" max="7" width="22.77734375" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
     <col min="9" max="9" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" t="s">
-        <v>17</v>
+      <c r="A2" s="15"/>
+      <c r="B2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>12</v>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -717,279 +760,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EA2049-1DB2-4FBC-AE26-59B2900711F2}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.77734375" customWidth="1"/>
-    <col min="2" max="7" width="4.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051AE229-FD51-44B7-B58D-4D2EDB8A2F1E}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
-    <col min="2" max="6" width="4.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>